--- a/src/main/resources/jxls_templates/warehouseposition.xlsx
+++ b/src/main/resources/jxls_templates/warehouseposition.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
-    <sheet name="人员档案表" sheetId="1" r:id="rId1"/>
+    <sheet name="库位档案" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -505,21 +505,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,7 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,7 +667,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,28 +685,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,10 +715,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,17 +776,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,102 +1142,102 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
-    <col min="3" max="5" width="19.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
-    <col min="7" max="10" width="19.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="8" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
